--- a/StructureDefinition-profile-ImagingStudy.xlsx
+++ b/StructureDefinition-profile-ImagingStudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="564">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7102437-06:00</t>
+    <t>2026-02-09T22:05:43.1529318-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,33 +428,57 @@
     <t>ImagingStudy.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ImagingStudy.extension:partOf</t>
+  </si>
+  <si>
+    <t>partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImagingStudy.partOf from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Procedure in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImagingStudy.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ImagingStudy.partOf` is will have a context of ImagingStudy based on following the parent source element upwards and mapping to `ImagingStudy`.</t>
+  </si>
+  <si>
+    <t>ImagingStudy.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ImagingStudy.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -462,6 +486,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -593,23 +620,16 @@
     <t>ImagingStudy.modality.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ImagingStudy.modality.extension:modality</t>
+  </si>
+  <si>
+    <t>modality</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.modality|0.0.1-snapshot-3}
@@ -622,6 +642,9 @@
     <t>A list of all the distinct values of series.modality. This may include both acquisition and non-acquisition modalities.</t>
   </si>
   <si>
+    <t>Element `ImagingStudy.modality` is mapped to FHIR R4 element `ImagingStudy.modality`.</t>
+  </si>
+  <si>
     <t>ImagingStudy.modality.system</t>
   </si>
   <si>
@@ -1150,6 +1173,9 @@
     <t>ImagingStudy.series.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1242,6 +1268,9 @@
     <t>ImagingStudy.series.modality.extension</t>
   </si>
   <si>
+    <t>ImagingStudy.series.modality.extension:modality</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series.modality|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1252,6 +1281,9 @@
     <t>The distinct modality for this series. This may include both acquisition and non-acquisition modalities.</t>
   </si>
   <si>
+    <t>Element `ImagingStudy.series.modality` is mapped to FHIR R4 element `ImagingStudy.series.modality`.</t>
+  </si>
+  <si>
     <t>ImagingStudy.series.modality.system</t>
   </si>
   <si>
@@ -1348,6 +1380,12 @@
     <t>ImagingStudy.series.bodySite.extension</t>
   </si>
   <si>
+    <t>ImagingStudy.series.bodySite.extension:bodySite</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series.bodySite|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1355,6 +1393,9 @@
     <t>Cross-version extension for ImagingStudy.series.bodySite from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `ImagingStudy.series.bodySite` is mapped to FHIR R4 element `ImagingStudy.series.bodySite`.</t>
+  </si>
+  <si>
     <t>ImagingStudy.series.bodySite.system</t>
   </si>
   <si>
@@ -1392,6 +1433,12 @@
   </si>
   <si>
     <t>ImagingStudy.series.laterality.extension</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.laterality.extension:laterality</t>
+  </si>
+  <si>
+    <t>laterality</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series.laterality|0.0.1-snapshot-3}
@@ -1401,6 +1448,9 @@
     <t>Cross-version extension for ImagingStudy.series.laterality from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `ImagingStudy.series.laterality` is mapped to FHIR R4 element `ImagingStudy.series.laterality`.</t>
+  </si>
+  <si>
     <t>ImagingStudy.series.laterality.system</t>
   </si>
   <si>
@@ -1524,11 +1574,20 @@
     <t>ImagingStudy.series.performer.actor.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series.performer.actor|0.0.1-snapshot-3}
-</t>
+    <t>ImagingStudy.series.performer.actor.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
   </si>
   <si>
     <t>Cross-version extension for ImagingStudy.series.performer.actor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImagingStudy.series.performer.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ImagingStudy.series.performer.actor` is mapped to FHIR R4 element `ImagingStudy.series.performer.actor`.</t>
   </si>
   <si>
     <t>ImagingStudy.series.performer.actor.reference</t>
@@ -2020,7 +2079,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO96"/>
+  <dimension ref="A1:AO97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2029,7 +2088,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.8828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.43359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.8828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3020,7 +3079,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3039,17 +3098,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -3086,16 +3143,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -3116,7 +3171,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -3133,11 +3188,13 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3150,26 +3207,24 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3217,7 +3272,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3235,7 +3290,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3249,14 +3304,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3269,13 +3324,13 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>149</v>
@@ -3336,7 +3391,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3348,19 +3403,19 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3368,44 +3423,46 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3429,13 +3486,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3453,13 +3510,13 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
@@ -3468,58 +3525,60 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AO12" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3544,13 +3603,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3568,13 +3627,13 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
@@ -3583,38 +3642,38 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3623,16 +3682,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3659,13 +3718,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3683,19 +3742,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3704,10 +3763,10 @@
         <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -3715,10 +3774,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3726,10 +3785,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3741,13 +3800,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3786,16 +3845,16 @@
         <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>191</v>
@@ -3804,19 +3863,19 @@
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3830,10 +3889,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3856,13 +3915,13 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3901,19 +3960,19 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3945,12 +4004,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3959,7 +4020,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3968,23 +4029,21 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -4032,25 +4091,25 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -4059,15 +4118,15 @@
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4090,18 +4149,20 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -4207,7 +4268,7 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>211</v>
@@ -4215,10 +4276,10 @@
       <c r="M19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>213</v>
       </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4324,7 +4385,7 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>218</v>
@@ -4441,19 +4502,17 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4502,7 +4561,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4520,7 +4579,7 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4529,15 +4588,15 @@
         <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4545,7 +4604,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4560,18 +4619,20 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4619,10 +4680,10 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>89</v>
@@ -4634,27 +4695,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4662,7 +4723,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -4677,16 +4738,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4736,10 +4797,10 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
@@ -4751,16 +4812,16 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4768,14 +4829,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4794,15 +4855,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4815,7 +4878,7 @@
         <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>78</v>
@@ -4851,7 +4914,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4866,16 +4929,16 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4883,21 +4946,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4909,18 +4972,16 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4932,7 +4993,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -4968,13 +5029,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4983,16 +5044,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -5000,21 +5061,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -5026,16 +5087,18 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -5083,13 +5146,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -5098,16 +5161,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5129,7 +5192,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5141,13 +5204,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5204,7 +5267,7 @@
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
@@ -5216,13 +5279,13 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5237,7 +5300,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5256,7 +5319,7 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>285</v>
@@ -5264,12 +5327,8 @@
       <c r="M28" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5335,13 +5394,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5356,14 +5415,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5375,16 +5434,20 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5438,7 +5501,7 @@
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
@@ -5450,10 +5513,10 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5490,13 +5553,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5565,10 +5628,10 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5579,14 +5642,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5605,13 +5668,13 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5662,7 +5725,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5677,7 +5740,7 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>308</v>
@@ -5701,14 +5764,14 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5720,13 +5783,13 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5753,13 +5816,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5783,7 +5846,7 @@
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5792,13 +5855,13 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5809,21 +5872,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5844,9 +5907,7 @@
         <v>321</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5870,13 +5931,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5894,13 +5955,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5909,27 +5970,27 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5940,7 +6001,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5952,16 +6013,18 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5985,13 +6048,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -6009,13 +6072,13 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
@@ -6024,27 +6087,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6067,13 +6130,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6100,13 +6163,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6124,7 +6187,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6139,19 +6202,19 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AM35" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN35" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -6263,29 +6326,29 @@
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6297,13 +6360,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6354,13 +6417,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -6369,13 +6432,13 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6386,21 +6449,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6412,13 +6475,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6469,13 +6532,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6487,10 +6550,10 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6501,10 +6564,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6515,7 +6578,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6524,16 +6587,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>180</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>181</v>
+        <v>366</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>182</v>
+        <v>367</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6584,25 +6647,25 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6616,21 +6679,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6642,17 +6705,15 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6707,19 +6768,19 @@
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6733,14 +6794,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>366</v>
+        <v>148</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6753,26 +6814,24 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6820,7 +6879,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>195</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6838,7 +6897,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6852,45 +6911,45 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>374</v>
+        <v>151</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6903,7 +6962,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -6939,28 +6998,28 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>377</v>
+        <v>132</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6971,18 +7030,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
@@ -6997,16 +7056,20 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7018,7 +7081,7 @@
         <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>78</v>
@@ -7054,10 +7117,10 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>89</v>
@@ -7072,10 +7135,10 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7086,18 +7149,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -7112,13 +7175,13 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7133,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>78</v>
@@ -7145,13 +7208,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7169,10 +7232,10 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>89</v>
@@ -7187,10 +7250,10 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>176</v>
+        <v>392</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7201,18 +7264,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -7224,16 +7287,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>181</v>
+        <v>396</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>182</v>
+        <v>397</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7260,13 +7323,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7284,10 +7347,10 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>183</v>
+        <v>394</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>89</v>
@@ -7296,7 +7359,7 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7305,7 +7368,7 @@
         <v>184</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7316,10 +7379,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7327,10 +7390,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7342,13 +7405,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7387,16 +7450,16 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>191</v>
@@ -7405,19 +7468,19 @@
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7431,10 +7494,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7445,7 +7508,7 @@
         <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7457,13 +7520,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>135</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>136</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7502,19 +7565,19 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7546,18 +7609,20 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
@@ -7569,23 +7634,21 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7633,25 +7696,25 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7660,15 +7723,15 @@
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7691,18 +7754,20 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7782,10 +7847,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7808,7 +7873,7 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>211</v>
@@ -7816,10 +7881,10 @@
       <c r="M50" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>213</v>
       </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7899,10 +7964,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7925,7 +7990,7 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>218</v>
@@ -8016,10 +8081,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8042,19 +8107,17 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8103,7 +8166,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8121,7 +8184,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -8130,19 +8193,19 @@
         <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8161,16 +8224,20 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>403</v>
+        <v>233</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8182,7 +8249,7 @@
         <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>78</v>
@@ -8218,7 +8285,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>401</v>
+        <v>237</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8236,28 +8303,28 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>355</v>
+        <v>238</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8276,13 +8343,13 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>292</v>
+        <v>188</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8297,7 +8364,7 @@
         <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>78</v>
@@ -8333,7 +8400,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8351,10 +8418,10 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>301</v>
+        <v>362</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8365,21 +8432,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8391,20 +8458,16 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8452,13 +8515,13 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
@@ -8470,10 +8533,10 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>421</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8484,21 +8547,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8510,16 +8573,20 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>170</v>
+        <v>291</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8543,37 +8610,37 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8585,10 +8652,10 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>423</v>
+        <v>296</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8599,14 +8666,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>428</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8622,16 +8689,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>181</v>
+        <v>429</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>182</v>
+        <v>430</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8658,13 +8725,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8682,7 +8749,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>183</v>
+        <v>427</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8694,16 +8761,16 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>184</v>
+        <v>433</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8714,10 +8781,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8725,10 +8792,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8740,13 +8807,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8785,16 +8852,16 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>191</v>
@@ -8803,19 +8870,19 @@
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8829,10 +8896,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8843,7 +8910,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8855,13 +8922,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>135</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>420</v>
+        <v>136</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8900,19 +8967,19 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8944,12 +9011,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8967,23 +9036,21 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>103</v>
+        <v>439</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>196</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>197</v>
+        <v>430</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9031,25 +9098,25 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -9058,15 +9125,15 @@
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9089,18 +9156,20 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9180,10 +9249,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9206,7 +9275,7 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>211</v>
@@ -9214,10 +9283,10 @@
       <c r="M62" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>213</v>
       </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9297,10 +9366,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9323,7 +9392,7 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>218</v>
@@ -9414,10 +9483,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9440,19 +9509,17 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9501,7 +9568,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9519,7 +9586,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9528,15 +9595,15 @@
         <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9559,16 +9626,20 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>435</v>
+        <v>233</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9592,13 +9663,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9616,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>434</v>
+        <v>237</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9634,24 +9705,24 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>423</v>
+        <v>238</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9671,16 +9742,16 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>181</v>
+        <v>448</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9707,13 +9778,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9731,7 +9802,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>183</v>
+        <v>447</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9743,16 +9814,16 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>184</v>
+        <v>433</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9763,10 +9834,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9774,10 +9845,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9789,13 +9860,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9834,16 +9905,16 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>191</v>
@@ -9852,19 +9923,19 @@
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9878,10 +9949,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9892,7 +9963,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9904,13 +9975,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>442</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>436</v>
+        <v>136</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9949,19 +10020,19 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9993,12 +10064,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10016,23 +10089,21 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>196</v>
+        <v>458</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>197</v>
+        <v>449</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10080,25 +10151,25 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -10107,15 +10178,15 @@
         <v>78</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10138,18 +10209,20 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10229,10 +10302,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10255,7 +10328,7 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>211</v>
@@ -10263,10 +10336,10 @@
       <c r="M71" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>213</v>
       </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10346,10 +10419,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10372,7 +10445,7 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>218</v>
@@ -10463,10 +10536,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10489,19 +10562,17 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10550,7 +10621,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10568,7 +10639,7 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10577,15 +10648,15 @@
         <v>78</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10596,7 +10667,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10608,16 +10679,20 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>450</v>
+        <v>232</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>451</v>
+        <v>233</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10665,13 +10740,13 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
@@ -10683,24 +10758,24 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>453</v>
+        <v>238</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10711,7 +10786,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10723,13 +10798,13 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>252</v>
+        <v>466</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10780,13 +10855,13 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
@@ -10798,10 +10873,10 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>257</v>
+        <v>469</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10812,21 +10887,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10838,20 +10913,16 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10899,13 +10970,13 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
@@ -10914,13 +10985,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10931,21 +11002,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10954,19 +11025,23 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>180</v>
+        <v>365</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>181</v>
+        <v>477</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11014,28 +11089,28 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>183</v>
+        <v>475</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11046,21 +11121,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -11072,17 +11147,15 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11137,19 +11210,19 @@
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -11163,14 +11236,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>366</v>
+        <v>148</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11183,26 +11256,24 @@
         <v>78</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11250,7 +11321,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>369</v>
+        <v>195</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11268,7 +11339,7 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11282,43 +11353,45 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>471</v>
+        <v>375</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O80" t="s" s="2">
-        <v>473</v>
+        <v>152</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11343,13 +11416,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11367,25 +11440,25 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>470</v>
+        <v>377</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
@@ -11399,10 +11472,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11410,7 +11483,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>89</v>
@@ -11425,16 +11498,18 @@
         <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>477</v>
+        <v>319</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11458,13 +11533,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -11482,10 +11557,10 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>89</v>
@@ -11500,24 +11575,24 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>479</v>
+        <v>287</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11525,7 +11600,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>89</v>
@@ -11537,16 +11612,16 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>180</v>
+        <v>493</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>181</v>
+        <v>477</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>182</v>
+        <v>494</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11597,10 +11672,10 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>183</v>
+        <v>492</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>89</v>
@@ -11609,30 +11684,30 @@
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>184</v>
+        <v>495</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11640,10 +11715,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11655,13 +11730,13 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11700,16 +11775,16 @@
         <v>78</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>191</v>
@@ -11718,19 +11793,19 @@
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11744,10 +11819,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11758,7 +11833,7 @@
         <v>89</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -11770,13 +11845,13 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>484</v>
+        <v>134</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>485</v>
+        <v>135</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>478</v>
+        <v>136</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11815,19 +11890,19 @@
         <v>78</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11859,18 +11934,20 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="D85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>89</v>
@@ -11882,19 +11959,19 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11944,25 +12021,25 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>490</v>
+        <v>195</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
@@ -11976,10 +12053,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12002,16 +12079,16 @@
         <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12037,13 +12114,13 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>78</v>
@@ -12061,7 +12138,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12070,7 +12147,7 @@
         <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>78</v>
+        <v>510</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>101</v>
@@ -12093,10 +12170,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12119,16 +12196,16 @@
         <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12154,13 +12231,13 @@
         <v>78</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>78</v>
+        <v>516</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>78</v>
@@ -12178,7 +12255,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12196,7 +12273,7 @@
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>504</v>
+        <v>132</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
@@ -12210,10 +12287,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12236,16 +12313,16 @@
         <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12295,7 +12372,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12313,7 +12390,7 @@
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>132</v>
+        <v>523</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
@@ -12327,10 +12404,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12341,7 +12418,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12350,18 +12427,20 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12410,13 +12489,13 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
@@ -12428,7 +12507,7 @@
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>513</v>
+        <v>132</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>78</v>
@@ -12442,10 +12521,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12456,7 +12535,7 @@
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12468,13 +12547,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>180</v>
+        <v>365</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>181</v>
+        <v>530</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>182</v>
+        <v>531</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12525,25 +12604,25 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>183</v>
+        <v>529</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>184</v>
+        <v>532</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -12557,21 +12636,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12583,17 +12662,15 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12648,19 +12725,19 @@
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -12674,14 +12751,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>366</v>
+        <v>148</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12694,26 +12771,24 @@
         <v>78</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12761,7 +12836,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>369</v>
+        <v>195</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -12779,7 +12854,7 @@
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
@@ -12793,45 +12868,45 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>518</v>
+        <v>374</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>519</v>
+        <v>375</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>520</v>
+        <v>376</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>521</v>
+        <v>151</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>522</v>
+        <v>152</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -12844,7 +12919,7 @@
         <v>78</v>
       </c>
       <c r="T93" t="s" s="2">
-        <v>523</v>
+        <v>78</v>
       </c>
       <c r="U93" t="s" s="2">
         <v>78</v>
@@ -12880,28 +12955,28 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>517</v>
+        <v>377</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>377</v>
+        <v>132</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>524</v>
+        <v>78</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -12912,14 +12987,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12938,16 +13013,20 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
@@ -12959,7 +13038,7 @@
         <v>78</v>
       </c>
       <c r="T94" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="U94" t="s" s="2">
         <v>78</v>
@@ -12971,13 +13050,13 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>529</v>
+        <v>78</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>530</v>
+        <v>78</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>78</v>
@@ -12995,7 +13074,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>89</v>
@@ -13013,10 +13092,10 @@
         <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>531</v>
+        <v>385</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13027,18 +13106,18 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>89</v>
@@ -13053,13 +13132,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13074,7 +13153,7 @@
         <v>78</v>
       </c>
       <c r="T95" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="U95" t="s" s="2">
         <v>78</v>
@@ -13086,13 +13165,13 @@
         <v>78</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>78</v>
+        <v>548</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>78</v>
+        <v>549</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>78</v>
@@ -13110,10 +13189,10 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>89</v>
@@ -13128,10 +13207,10 @@
         <v>78</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13142,14 +13221,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>78</v>
+        <v>553</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13168,17 +13247,15 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>180</v>
+        <v>299</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13191,7 +13268,7 @@
         <v>78</v>
       </c>
       <c r="T96" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="U96" t="s" s="2">
         <v>78</v>
@@ -13227,7 +13304,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13245,15 +13322,132 @@
         <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO96" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO97" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ImagingStudy.xlsx
+++ b/StructureDefinition-profile-ImagingStudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1529318-06:00</t>
+    <t>2026-02-17T14:42:26.8245204-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,7 +469,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImagingStudy.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ImagingStudy.partOf` is will have a context of ImagingStudy based on following the parent source element upwards and mapping to `ImagingStudy`.</t>
+Element `ImagingStudy.partOf` has a context of ImagingStudy based on following the parent source element upwards and mapping to `ImagingStudy`.</t>
   </si>
   <si>
     <t>ImagingStudy.modifierExtension</t>
@@ -642,7 +642,7 @@
     <t>A list of all the distinct values of series.modality. This may include both acquisition and non-acquisition modalities.</t>
   </si>
   <si>
-    <t>Element `ImagingStudy.modality` is mapped to FHIR R4 element `ImagingStudy.modality`.</t>
+    <t>Element `ImagingStudy.modality` has is mapped to FHIR R4 element `ImagingStudy.modality`, but has no comparisons.</t>
   </si>
   <si>
     <t>ImagingStudy.modality.system</t>
@@ -1173,10 +1173,24 @@
     <t>ImagingStudy.series.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>ImagingStudy.series.extension:series</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImagingStudy.series from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ImagingStudy.series` has is mapped to FHIR R4 element `ImagingStudy.series`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ImagingStudy.series.modifierExtension</t>
@@ -1262,43 +1276,6 @@
     <t>(0008,0060)</t>
   </si>
   <si>
-    <t>ImagingStudy.series.modality.id</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.modality.extension</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.modality.extension:modality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series.modality|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImagingStudy.series.modality from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The distinct modality for this series. This may include both acquisition and non-acquisition modalities.</t>
-  </si>
-  <si>
-    <t>Element `ImagingStudy.series.modality` is mapped to FHIR R4 element `ImagingStudy.series.modality`.</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.modality.system</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.modality.version</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.modality.code</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.modality.display</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.modality.userSelected</t>
-  </si>
-  <si>
     <t>ImagingStudy.series.description</t>
   </si>
   <si>
@@ -1374,43 +1351,6 @@
     <t>(0018,0015)</t>
   </si>
   <si>
-    <t>ImagingStudy.series.bodySite.id</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.bodySite.extension</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.bodySite.extension:bodySite</t>
-  </si>
-  <si>
-    <t>bodySite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series.bodySite|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImagingStudy.series.bodySite from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ImagingStudy.series.bodySite` is mapped to FHIR R4 element `ImagingStudy.series.bodySite`.</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.bodySite.system</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.bodySite.version</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.bodySite.code</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.bodySite.display</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.bodySite.userSelected</t>
-  </si>
-  <si>
     <t>ImagingStudy.series.laterality</t>
   </si>
   <si>
@@ -1427,43 +1367,6 @@
   </si>
   <si>
     <t>(0020,0060)</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.laterality.id</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.laterality.extension</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.laterality.extension:laterality</t>
-  </si>
-  <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series.laterality|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImagingStudy.series.laterality from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ImagingStudy.series.laterality` is mapped to FHIR R4 element `ImagingStudy.series.laterality`.</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.laterality.system</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.laterality.version</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.laterality.code</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.laterality.display</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.laterality.userSelected</t>
   </si>
   <si>
     <t>ImagingStudy.series.specimen</t>
@@ -1528,6 +1431,12 @@
     <t>ImagingStudy.series.performer.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>ImagingStudy.series.performer.modifierExtension</t>
   </si>
   <si>
@@ -1566,105 +1475,6 @@
   </si>
   <si>
     <t>EVN.5 or by domain</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.performer.actor.id</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.performer.actor.extension</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.performer.actor.extension:actor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImagingStudy.series.performer.actor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImagingStudy.series.performer.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ImagingStudy.series.performer.actor` is mapped to FHIR R4 element `ImagingStudy.series.performer.actor`.</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.performer.actor.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.performer.actor.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.performer.actor.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>ImagingStudy.series.performer.actor.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>ImagingStudy.series.instance</t>
@@ -2079,7 +1889,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO97"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2088,7 +1898,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.43359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.8828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.8828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2112,7 +1922,7 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.3203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="78.59765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
@@ -6801,7 +6611,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6823,14 +6633,12 @@
         <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>135</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6867,16 +6675,14 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>195</v>
@@ -6897,7 +6703,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6911,14 +6717,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="D42" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6931,26 +6739,24 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6998,7 +6804,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7007,7 +6813,7 @@
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>140</v>
@@ -7016,7 +6822,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -7030,45 +6836,45 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>382</v>
+        <v>151</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>383</v>
+        <v>152</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7081,7 +6887,7 @@
         <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>78</v>
@@ -7117,28 +6923,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>385</v>
+        <v>132</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7149,18 +6955,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>89</v>
@@ -7175,16 +6981,20 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>299</v>
+        <v>91</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7196,7 +7006,7 @@
         <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>78</v>
@@ -7232,10 +7042,10 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>89</v>
@@ -7250,10 +7060,10 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7264,18 +7074,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -7290,13 +7100,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7311,7 +7121,7 @@
         <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>78</v>
@@ -7323,13 +7133,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7347,10 +7157,10 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>89</v>
@@ -7365,10 +7175,10 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>184</v>
+        <v>396</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7379,18 +7189,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>89</v>
@@ -7402,16 +7212,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>190</v>
+        <v>401</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7438,13 +7248,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7462,10 +7272,10 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>191</v>
+        <v>398</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>89</v>
@@ -7474,16 +7284,16 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7494,22 +7304,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7517,16 +7327,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>136</v>
+        <v>406</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7541,7 +7351,7 @@
         <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>78</v>
@@ -7565,40 +7375,40 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>195</v>
+        <v>403</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7609,20 +7419,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>89</v>
@@ -7634,20 +7442,18 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>402</v>
+        <v>299</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7696,28 +7502,28 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>195</v>
+        <v>409</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7728,10 +7534,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7742,7 +7548,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7754,19 +7560,19 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>203</v>
+        <v>415</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>205</v>
+        <v>417</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>206</v>
+        <v>418</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7815,13 +7621,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>207</v>
+        <v>414</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7833,7 +7639,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7842,19 +7648,19 @@
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7873,17 +7679,15 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7908,13 +7712,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7932,7 +7736,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>214</v>
+        <v>419</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7950,24 +7754,24 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>215</v>
+        <v>425</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7990,18 +7794,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>218</v>
+        <v>428</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>219</v>
+        <v>429</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8025,13 +7827,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -8049,7 +7851,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>221</v>
+        <v>427</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8067,24 +7869,24 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>222</v>
+        <v>425</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8095,7 +7897,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8107,18 +7909,16 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>188</v>
+        <v>434</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>225</v>
+        <v>435</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>226</v>
+        <v>436</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>227</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8166,13 +7966,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>228</v>
+        <v>433</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -8184,24 +7984,24 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>229</v>
+        <v>437</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8224,20 +8024,16 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>233</v>
+        <v>440</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8285,7 +8081,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>237</v>
+        <v>439</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8303,35 +8099,35 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>442</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8343,16 +8139,20 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>188</v>
+        <v>365</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8364,7 +8164,7 @@
         <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>78</v>
@@ -8400,13 +8200,13 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -8415,13 +8215,13 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8432,14 +8232,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8455,16 +8255,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>189</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>190</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8515,7 +8315,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>417</v>
+        <v>191</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8527,16 +8327,16 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8547,14 +8347,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8570,23 +8370,21 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>291</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8634,7 +8432,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>422</v>
+        <v>195</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8646,13 +8444,13 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8666,42 +8464,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8725,13 +8527,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8749,28 +8551,28 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>433</v>
+        <v>132</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8781,10 +8583,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8804,19 +8606,21 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>319</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>189</v>
+        <v>457</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>190</v>
+        <v>458</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8840,13 +8644,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8864,7 +8668,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>191</v>
+        <v>456</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8876,13 +8680,13 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8896,10 +8700,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8907,10 +8711,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8919,16 +8723,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>463</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>135</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>136</v>
+        <v>464</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8967,58 +8771,56 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>195</v>
+        <v>462</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9027,7 +8829,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -9039,17 +8841,15 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -9098,7 +8898,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>195</v>
+        <v>468</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9110,13 +8910,13 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -9130,10 +8930,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9153,23 +8953,19 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9217,7 +9013,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9229,13 +9025,13 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9244,26 +9040,26 @@
         <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9272,19 +9068,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>211</v>
+        <v>453</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>212</v>
+        <v>454</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9334,25 +9130,25 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9361,48 +9157,50 @@
         <v>78</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>218</v>
+        <v>379</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9451,25 +9249,25 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>221</v>
+        <v>381</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9478,23 +9276,23 @@
         <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>89</v>
@@ -9506,20 +9304,22 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>225</v>
+        <v>477</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>227</v>
+        <v>480</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9532,7 +9332,7 @@
         <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>78</v>
@@ -9568,10 +9368,10 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>228</v>
+        <v>475</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>89</v>
@@ -9586,32 +9386,32 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -9623,23 +9423,19 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>233</v>
+        <v>485</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9663,13 +9459,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>487</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9687,10 +9483,10 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>237</v>
+        <v>483</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>89</v>
@@ -9705,28 +9501,28 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>238</v>
+        <v>489</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9742,16 +9538,16 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9766,7 +9562,7 @@
         <v>78</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>78</v>
@@ -9778,13 +9574,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9802,7 +9598,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9820,10 +9616,10 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9834,10 +9630,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9863,12 +9659,14 @@
         <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>189</v>
+        <v>498</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9917,7 +9715,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9929,3525 +9727,21 @@
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>192</v>
+        <v>501</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="P72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="D85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO97" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ImagingStudy.xlsx
+++ b/StructureDefinition-profile-ImagingStudy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8245204-06:00</t>
+    <t>2026-02-20T11:59:20.8376932-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImagingStudy|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ImagingStudy</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -632,7 +632,7 @@
     <t>modality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.modality|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.modality}
 </t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>series</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-ImagingStudy.xlsx
+++ b/StructureDefinition-profile-ImagingStudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2500" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="528">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8376932-06:00</t>
+    <t>2026-02-21T13:36:54.2472638-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImagingStudy</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ImagingStudy|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -428,10 +428,171 @@
     <t>ImagingStudy.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ImagingStudy.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ImagingStudy.identifier</t>
+  </si>
+  <si>
+    <t>StudyInstanceUID
+AccessionNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers for the whole study</t>
+  </si>
+  <si>
+    <t>Identifiers for the ImagingStudy such as DICOM Study Instance UID, and Accession Number.</t>
+  </si>
+  <si>
+    <t>See discussion under [Imaging Study Implementation Notes](http://hl7.org/fhir/R4/imagingstudy.html#notes) for encoding of DICOM Study Instance UID. Accession Number should use ACSN Identifier type.</t>
+  </si>
+  <si>
+    <t>If one or more series elements are present in the ImagingStudy, then there shall be one DICOM Study UID identifier (see [DICOM PS 3.3 C.7.2](http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.2.html).</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id and .inboundRelationship[typeCode=COMP].source[classCode=ACSN, moodCode=EVN].id</t>
+  </si>
+  <si>
+    <t>StudyInstanceUID (0020,000D) | Accession Number and Issuer (0080,0050)+(0080,0051) | Study ID (0020,0010)</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ImagingStudy.status</t>
+  </si>
+  <si>
+    <t>registered | available | cancelled | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The current state of the ImagingStudy.</t>
+  </si>
+  <si>
+    <t>Unknown does not represent "other" - one of the defined statuses must apply.  Unknown is used when the authoring system is not sure what the current status is.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the ImagingStudy.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/imagingstudy-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>ImagingStudy.modality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModalitiesInStudy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>All series modality if actual acquisition modalities</t>
+  </si>
+  <si>
+    <t>A list of all the series.modality values that are actual acquisition modalities, i.e. those in the DICOM Context Group 29 (value set OID 1.2.840.10008.6.1.19).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Type of acquired data in the instance.</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>(0008,0061)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>ImagingStudy.modality.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ImagingStudy.modality.extension</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -442,207 +603,32 @@
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ImagingStudy.extension:partOf</t>
-  </si>
-  <si>
-    <t>partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ImagingStudy.modality.extension:modality</t>
+  </si>
+  <si>
+    <t>modality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.modality|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ImagingStudy.partOf from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Procedure in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ImagingStudy.partOf` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ImagingStudy.partOf` has a context of ImagingStudy based on following the parent source element upwards and mapping to `ImagingStudy`.</t>
-  </si>
-  <si>
-    <t>ImagingStudy.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ImagingStudy.identifier</t>
-  </si>
-  <si>
-    <t>StudyInstanceUID
-AccessionNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers for the whole study</t>
-  </si>
-  <si>
-    <t>Identifiers for the ImagingStudy such as DICOM Study Instance UID, and Accession Number.</t>
-  </si>
-  <si>
-    <t>See discussion under [Imaging Study Implementation Notes](http://hl7.org/fhir/R4/imagingstudy.html#notes) for encoding of DICOM Study Instance UID. Accession Number should use ACSN Identifier type.</t>
-  </si>
-  <si>
-    <t>If one or more series elements are present in the ImagingStudy, then there shall be one DICOM Study UID identifier (see [DICOM PS 3.3 C.7.2](http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.2.html).</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id and .inboundRelationship[typeCode=COMP].source[classCode=ACSN, moodCode=EVN].id</t>
-  </si>
-  <si>
-    <t>StudyInstanceUID (0020,000D) | Accession Number and Issuer (0080,0050)+(0080,0051) | Study ID (0020,0010)</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ImagingStudy.status</t>
-  </si>
-  <si>
-    <t>registered | available | cancelled | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The current state of the ImagingStudy.</t>
-  </si>
-  <si>
-    <t>Unknown does not represent "other" - one of the defined statuses must apply.  Unknown is used when the authoring system is not sure what the current status is.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the ImagingStudy.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/imagingstudy-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>ImagingStudy.modality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModalitiesInStudy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>All series modality if actual acquisition modalities</t>
-  </si>
-  <si>
-    <t>A list of all the series.modality values that are actual acquisition modalities, i.e. those in the DICOM Context Group 29 (value set OID 1.2.840.10008.6.1.19).</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Type of acquired data in the instance.</t>
-  </si>
-  <si>
-    <t>http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>(0008,0061)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>ImagingStudy.modality.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ImagingStudy.modality.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ImagingStudy.modality.extension:modality</t>
-  </si>
-  <si>
-    <t>modality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.modality}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for ImagingStudy.modality from R5 for use in FHIR R4</t>
   </si>
   <si>
     <t>A list of all the distinct values of series.modality. This may include both acquisition and non-acquisition modalities.</t>
   </si>
   <si>
-    <t>Element `ImagingStudy.modality` has is mapped to FHIR R4 element `ImagingStudy.modality`, but has no comparisons.</t>
+    <t>Element `ImagingStudy.modality` is mapped to FHIR R4 element `ImagingStudy.modality` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>ImagingStudy.modality.system</t>
@@ -1173,24 +1159,7 @@
     <t>ImagingStudy.series.extension</t>
   </si>
   <si>
-    <t>ImagingStudy.series.extension:series</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImagingStudy.series from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ImagingStudy.series` has is mapped to FHIR R4 element `ImagingStudy.series`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ImagingStudy.series.modifierExtension</t>
@@ -1276,6 +1245,43 @@
     <t>(0008,0060)</t>
   </si>
   <si>
+    <t>ImagingStudy.series.modality.id</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.modality.extension</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.modality.extension:modality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series.modality|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImagingStudy.series.modality from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The distinct modality for this series. This may include both acquisition and non-acquisition modalities.</t>
+  </si>
+  <si>
+    <t>Element `ImagingStudy.series.modality` is mapped to FHIR R4 element `ImagingStudy.series.modality` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.modality.system</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.modality.version</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.modality.code</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.modality.display</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.modality.userSelected</t>
+  </si>
+  <si>
     <t>ImagingStudy.series.description</t>
   </si>
   <si>
@@ -1351,6 +1357,43 @@
     <t>(0018,0015)</t>
   </si>
   <si>
+    <t>ImagingStudy.series.bodySite.id</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.bodySite.extension</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.bodySite.extension:bodySite</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series.bodySite|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImagingStudy.series.bodySite from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ImagingStudy.series.bodySite` is mapped to FHIR R4 element `ImagingStudy.series.bodySite` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.bodySite.system</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.bodySite.version</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.bodySite.code</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.bodySite.display</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.bodySite.userSelected</t>
+  </si>
+  <si>
     <t>ImagingStudy.series.laterality</t>
   </si>
   <si>
@@ -1367,6 +1410,43 @@
   </si>
   <si>
     <t>(0020,0060)</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.laterality.id</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.laterality.extension</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.laterality.extension:laterality</t>
+  </si>
+  <si>
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImagingStudy.series.laterality|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImagingStudy.series.laterality from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ImagingStudy.series.laterality` is mapped to FHIR R4 element `ImagingStudy.series.laterality` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.laterality.system</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.laterality.version</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.laterality.code</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.laterality.display</t>
+  </si>
+  <si>
+    <t>ImagingStudy.series.laterality.userSelected</t>
   </si>
   <si>
     <t>ImagingStudy.series.specimen</t>
@@ -1429,12 +1509,6 @@
   </si>
   <si>
     <t>ImagingStudy.series.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ImagingStudy.series.performer.modifierExtension</t>
@@ -1889,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AO89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2889,7 +2963,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2908,15 +2982,17 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2953,14 +3029,16 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2981,7 +3059,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2998,13 +3076,11 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3017,24 +3093,26 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3082,7 +3160,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3100,7 +3178,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3114,14 +3192,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3134,13 +3212,13 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>149</v>
@@ -3201,7 +3279,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3213,19 +3291,19 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3233,46 +3311,44 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O12" t="s" s="2">
         <v>160</v>
       </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3296,13 +3372,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3320,13 +3396,13 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
@@ -3335,60 +3411,58 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3413,13 +3487,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3437,13 +3511,13 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
@@ -3452,38 +3526,38 @@
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3492,16 +3566,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3528,43 +3602,43 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3573,10 +3647,10 @@
         <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -3584,10 +3658,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3598,7 +3672,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3610,13 +3684,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3655,16 +3729,16 @@
         <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>191</v>
@@ -3673,19 +3747,19 @@
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3699,12 +3773,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3725,15 +3801,17 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3770,19 +3848,19 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3814,14 +3892,12 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3830,7 +3906,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3839,10 +3915,10 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>199</v>
@@ -3853,7 +3929,9 @@
       <c r="N17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3901,25 +3979,25 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3928,15 +4006,15 @@
         <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3959,20 +4037,18 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -4020,7 +4096,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4038,7 +4114,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4047,15 +4123,15 @@
         <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4078,18 +4154,18 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4137,7 +4213,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4155,7 +4231,7 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4164,15 +4240,15 @@
         <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4195,17 +4271,17 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4254,7 +4330,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4272,7 +4348,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4281,15 +4357,15 @@
         <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4312,17 +4388,19 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4371,7 +4449,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4389,7 +4467,7 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4398,15 +4476,15 @@
         <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4414,7 +4492,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4429,20 +4507,18 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4490,10 +4566,10 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>89</v>
@@ -4505,27 +4581,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4533,7 +4609,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -4548,16 +4624,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4607,10 +4683,10 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
@@ -4622,16 +4698,16 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4639,14 +4715,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4665,17 +4741,15 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4688,7 +4762,7 @@
         <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>78</v>
@@ -4724,7 +4798,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4739,16 +4813,16 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4756,21 +4830,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4782,16 +4856,18 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4803,7 +4879,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -4839,13 +4915,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4854,16 +4930,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>78</v>
@@ -4871,21 +4947,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4897,18 +4973,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4956,13 +5030,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4971,16 +5045,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -4988,21 +5062,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5014,13 +5088,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5071,13 +5145,13 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
@@ -5089,13 +5163,13 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5103,14 +5177,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5129,16 +5203,20 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5186,7 +5264,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5204,13 +5282,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5218,21 +5296,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5244,20 +5322,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5305,13 +5379,13 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
@@ -5323,10 +5397,10 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5337,14 +5411,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5363,13 +5437,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5420,7 +5494,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5438,10 +5512,10 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5452,14 +5526,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5478,13 +5552,13 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5535,7 +5609,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5550,13 +5624,13 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5567,21 +5641,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5593,13 +5667,13 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5626,13 +5700,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5650,13 +5724,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5665,13 +5739,13 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5682,21 +5756,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5708,16 +5782,18 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5741,13 +5817,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5765,13 +5841,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5780,27 +5856,27 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5811,7 +5887,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5823,18 +5899,16 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5858,13 +5932,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5882,13 +5956,13 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
@@ -5897,27 +5971,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5940,13 +6014,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5973,13 +6047,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5997,7 +6071,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6012,27 +6086,27 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6055,13 +6129,13 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6112,7 +6186,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6127,38 +6201,38 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6170,13 +6244,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>353</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6227,13 +6301,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -6242,13 +6316,13 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6259,21 +6333,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6285,13 +6359,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>361</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6342,13 +6416,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6360,10 +6434,10 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6374,10 +6448,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6388,7 +6462,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6397,16 +6471,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>367</v>
+        <v>182</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6457,25 +6531,25 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>364</v>
+        <v>183</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>368</v>
+        <v>184</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6489,21 +6563,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6515,15 +6589,17 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6578,19 +6654,19 @@
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6604,14 +6680,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6624,22 +6700,26 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>135</v>
+        <v>370</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6675,17 +6755,19 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>195</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6703,7 +6785,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6717,23 +6799,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6742,21 +6822,23 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>373</v>
+        <v>91</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6768,7 +6850,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -6804,28 +6886,28 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>195</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6836,46 +6918,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6887,7 +6965,7 @@
         <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>78</v>
@@ -6923,28 +7001,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>132</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6955,14 +7033,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6981,20 +7059,16 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7006,7 +7080,7 @@
         <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>78</v>
@@ -7018,13 +7092,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7042,7 +7116,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>89</v>
@@ -7060,10 +7134,10 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>389</v>
+        <v>176</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7074,14 +7148,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7097,16 +7171,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>181</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
+        <v>182</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7121,7 +7195,7 @@
         <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>78</v>
@@ -7157,7 +7231,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7169,16 +7243,16 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>396</v>
+        <v>184</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7189,21 +7263,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7212,16 +7286,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>400</v>
+        <v>186</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>401</v>
+        <v>187</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7248,52 +7322,52 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>398</v>
+        <v>191</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7304,18 +7378,20 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D47" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7327,18 +7403,20 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>188</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7351,7 +7429,7 @@
         <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>78</v>
@@ -7387,28 +7465,28 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>403</v>
+        <v>191</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7419,14 +7497,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7445,16 +7523,20 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>299</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>411</v>
+        <v>199</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7502,7 +7584,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>409</v>
+        <v>203</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7520,24 +7602,24 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7548,7 +7630,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7560,20 +7642,18 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>415</v>
+        <v>207</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7621,13 +7701,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>414</v>
+        <v>210</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7639,7 +7719,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7648,19 +7728,19 @@
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7679,16 +7759,18 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>421</v>
+        <v>214</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>422</v>
+        <v>215</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7712,13 +7794,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7736,7 +7818,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>419</v>
+        <v>217</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7754,24 +7836,24 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>425</v>
+        <v>218</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7794,16 +7876,18 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>428</v>
+        <v>221</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7827,13 +7911,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7851,7 +7935,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>427</v>
+        <v>224</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7869,24 +7953,24 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>425</v>
+        <v>225</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7897,7 +7981,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7909,16 +7993,20 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>434</v>
+        <v>228</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>435</v>
+        <v>229</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7966,13 +8054,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>433</v>
+        <v>233</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -7984,28 +8072,28 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>437</v>
+        <v>234</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8024,13 +8112,13 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8045,7 +8133,7 @@
         <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>78</v>
@@ -8081,7 +8169,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8099,10 +8187,10 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8113,21 +8201,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8139,20 +8227,16 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8200,13 +8284,13 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -8215,13 +8299,13 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8232,10 +8316,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8246,7 +8330,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8255,19 +8339,23 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>189</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8315,25 +8403,25 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>191</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8347,21 +8435,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>148</v>
+        <v>423</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8370,20 +8458,18 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8408,13 +8494,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8432,28 +8518,28 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>195</v>
+        <v>422</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>192</v>
+        <v>428</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8464,46 +8550,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>181</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8551,25 +8633,25 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>183</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8583,10 +8665,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8597,7 +8679,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8606,21 +8688,19 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>457</v>
+        <v>186</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>458</v>
+        <v>187</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>459</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8644,49 +8724,49 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>456</v>
+        <v>191</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8700,18 +8780,20 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>89</v>
@@ -8723,18 +8805,20 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8783,42 +8867,42 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>462</v>
+        <v>191</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8829,7 +8913,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8838,19 +8922,23 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>469</v>
+        <v>199</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8898,13 +8986,13 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>468</v>
+        <v>203</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
@@ -8916,7 +9004,7 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>471</v>
+        <v>204</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8925,15 +9013,15 @@
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8953,18 +9041,20 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9013,7 +9103,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9025,13 +9115,13 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9040,26 +9130,26 @@
         <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9068,21 +9158,21 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>214</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9130,25 +9220,25 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9157,50 +9247,48 @@
         <v>78</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
+        <v>221</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9249,25 +9337,25 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>381</v>
+        <v>224</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9276,23 +9364,23 @@
         <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>476</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>89</v>
@@ -9304,22 +9392,22 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
+        <v>229</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>478</v>
+        <v>230</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>479</v>
+        <v>231</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>480</v>
+        <v>232</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9332,7 +9420,7 @@
         <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>78</v>
@@ -9368,10 +9456,10 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>475</v>
+        <v>233</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>89</v>
@@ -9386,32 +9474,32 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>389</v>
+        <v>234</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -9423,16 +9511,16 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9459,13 +9547,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>181</v>
+        <v>334</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9483,10 +9571,10 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>89</v>
@@ -9501,10 +9589,10 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>489</v>
+        <v>428</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9515,14 +9603,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9541,13 +9629,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>493</v>
+        <v>181</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>494</v>
+        <v>182</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9562,7 +9650,7 @@
         <v>78</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>78</v>
@@ -9598,7 +9686,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>491</v>
+        <v>183</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9610,16 +9698,16 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>495</v>
+        <v>184</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9630,10 +9718,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>497</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>497</v>
+        <v>449</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9644,7 +9732,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9656,17 +9744,15 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>498</v>
+        <v>186</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9703,45 +9789,2617 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AF67" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AG67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
+      <c r="B83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO67" t="s" s="2">
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO89" t="s" s="2">
         <v>78</v>
       </c>
     </row>
